--- a/medicine/Mort/Monuments_aux_morts_de_Tontelange-Metzert/Monuments_aux_morts_de_Tontelange-Metzert.xlsx
+++ b/medicine/Mort/Monuments_aux_morts_de_Tontelange-Metzert/Monuments_aux_morts_de_Tontelange-Metzert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les monuments aux morts de Tontelange-Metzert (Belgique) commémorent les hommes fusillés le 1er septembre 1944 (une semaine avant la libération d'Arlon) par la Sicherheit Polizei pour avoir fait de la résistance, du sabotage, de l'espionnage...
 Sont morts :
